--- a/onlyoffice_odoo/static/assets/document_templates/pt-BR/new.xlsx
+++ b/onlyoffice_odoo/static/assets/document_templates/pt-BR/new.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
